--- a/data/Preparation/raw/Link.xlsx
+++ b/data/Preparation/raw/Link.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\use\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\use\Dropbox (OPML)\LIGADA MEL\MEL working\09 Follow up studies\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994A18A1-C4EF-4952-A286-978E64280708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92F68E1-A0BB-4F4B-BE7B-DCBC147ED365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="15375" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="284">
   <si>
     <t>Nome</t>
   </si>
@@ -57,9 +60,6 @@
     <t>telefone_2</t>
   </si>
   <si>
-    <t>endereco</t>
-  </si>
-  <si>
     <t>cidade</t>
   </si>
   <si>
@@ -67,16 +67,853 @@
   </si>
   <si>
     <t>provincia</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>AGUINALDO ABEL RODRIGUES CARLITOS</t>
+  </si>
+  <si>
+    <t>ALEXANDRE PEQUENINO JUNIOR</t>
+  </si>
+  <si>
+    <t>AMELIA SAMUEL MANJATE CHILUNDZO</t>
+  </si>
+  <si>
+    <t>ARLETE EUGENIO SARDINHA</t>
+  </si>
+  <si>
+    <t>BENVINDA PEDRO CUNA</t>
+  </si>
+  <si>
+    <t>BERNADETE INOCENCIA MACHAI NHAHUCHUA</t>
+  </si>
+  <si>
+    <t>CARLOS LASARO MADUELA</t>
+  </si>
+  <si>
+    <t>CESALTINA ANA ZANDAMELA</t>
+  </si>
+  <si>
+    <t>CESARIO MARIO BALOI</t>
+  </si>
+  <si>
+    <t>CHANAIA RACHIDA SAMUEL JOAO</t>
+  </si>
+  <si>
+    <t>CIDALIA FABIAO TIMBA MAUNZE</t>
+  </si>
+  <si>
+    <t>DEONILDO MALAQUIAS ROBERTO FUMO</t>
+  </si>
+  <si>
+    <t>DERCIA LUISA NHABOMBA</t>
+  </si>
+  <si>
+    <t>DOMINGOS DAVID NHANENGUE</t>
+  </si>
+  <si>
+    <t>DULCIDIO CARLOS DAVA</t>
+  </si>
+  <si>
+    <t>EDSON MANUEL MUJOVU</t>
+  </si>
+  <si>
+    <t>ELISA JOSE GOBO</t>
+  </si>
+  <si>
+    <t>EMILIA CARLA GUAMBE</t>
+  </si>
+  <si>
+    <t>ENIA ANTONIO MAHUMANE</t>
+  </si>
+  <si>
+    <t>FABIO SITOE</t>
+  </si>
+  <si>
+    <t>FATIMA ANTONIO MUCHANGA</t>
+  </si>
+  <si>
+    <t>GERSON EUSEBIO JAMO</t>
+  </si>
+  <si>
+    <t>GULINA ALCINDA RUFINO</t>
+  </si>
+  <si>
+    <t>HERCO FERNANDO TAIMO ZAU ZAU</t>
+  </si>
+  <si>
+    <t>ILTON ELISIO JANUARIO MATIMELA</t>
+  </si>
+  <si>
+    <t>ISAURA AMERICO CUMBE</t>
+  </si>
+  <si>
+    <t>JENIFA DA GRACIOSA CHIZIANE</t>
+  </si>
+  <si>
+    <t>JESSICA DO MISTERIO LANGA</t>
+  </si>
+  <si>
+    <t>KENNY CUSTODIO BATINE</t>
+  </si>
+  <si>
+    <t>LEANDRO NELSON MUNGUAMBE</t>
+  </si>
+  <si>
+    <t>LEIDE MARIA DERCIO</t>
+  </si>
+  <si>
+    <t>LEONARDO CRISTOVAO LINO</t>
+  </si>
+  <si>
+    <t>LETICIA MARCIA FELICIANO MONDLANE</t>
+  </si>
+  <si>
+    <t>LUCIO DE MELO MIAMBO</t>
+  </si>
+  <si>
+    <t>LUIS DAMIAO DE CASTRO SAMBO</t>
+  </si>
+  <si>
+    <t>LURDES RAIMUNDO CHIBEUBEU</t>
+  </si>
+  <si>
+    <t>MARCELINO CARLOS NIQUISSE</t>
+  </si>
+  <si>
+    <t>MILENA CARINA CARNEIRO PINTO</t>
+  </si>
+  <si>
+    <t>NELIO HENRIQUE MONDLANE</t>
+  </si>
+  <si>
+    <t>NEVES LUCAS SECHENE</t>
+  </si>
+  <si>
+    <t>NEYDE ROSALINA MUTIMBA</t>
+  </si>
+  <si>
+    <t>NILZO ANGELO XAVIER</t>
+  </si>
+  <si>
+    <t>STEFANIA NICOLE BAMBO</t>
+  </si>
+  <si>
+    <t>TANIA INES BUQUE</t>
+  </si>
+  <si>
+    <t>ZELMIDIA VANDA MANUEL SAMBO</t>
+  </si>
+  <si>
+    <t>MASCULINO</t>
+  </si>
+  <si>
+    <t>FEMININO</t>
+  </si>
+  <si>
+    <t>MAPUTO CIDADE</t>
+  </si>
+  <si>
+    <t>MAPUTO PROVINCIA</t>
+  </si>
+  <si>
+    <t>CIDADE DE MAPUTO</t>
+  </si>
+  <si>
+    <t>BOANE</t>
+  </si>
+  <si>
+    <t>CIDADE DE MATOLA</t>
+  </si>
+  <si>
+    <t>MAHOTAS</t>
+  </si>
+  <si>
+    <t>MAXAQUENE D</t>
+  </si>
+  <si>
+    <t>URBANIZACAO</t>
+  </si>
+  <si>
+    <t>MATOLA GARE</t>
+  </si>
+  <si>
+    <t>MATOLA A</t>
+  </si>
+  <si>
+    <t>MALHAZINE</t>
+  </si>
+  <si>
+    <t>MATOLA RIO</t>
+  </si>
+  <si>
+    <t>TRIUNFO</t>
+  </si>
+  <si>
+    <t>LIBERDADE</t>
+  </si>
+  <si>
+    <t>ALBAZINE</t>
+  </si>
+  <si>
+    <t>ZIMPETO</t>
+  </si>
+  <si>
+    <t>XIPAMANINE</t>
+  </si>
+  <si>
+    <t>FERROVIARIO</t>
+  </si>
+  <si>
+    <t>MAVALANE B</t>
+  </si>
+  <si>
+    <t>GEORGE DIMITROV</t>
+  </si>
+  <si>
+    <t>MATOLA B</t>
+  </si>
+  <si>
+    <t>MAXAQUENE C</t>
+  </si>
+  <si>
+    <t>MALHAMPSENE</t>
+  </si>
+  <si>
+    <t>MAGOANINE</t>
+  </si>
+  <si>
+    <t>MUCATINE</t>
+  </si>
+  <si>
+    <t>POLANA CANICO A</t>
+  </si>
+  <si>
+    <t>CENTRAL C</t>
+  </si>
+  <si>
+    <t>T-3</t>
+  </si>
+  <si>
+    <t>TSALALA</t>
+  </si>
+  <si>
+    <t>BAGAMOIO</t>
+  </si>
+  <si>
+    <t>1º DE MAIO</t>
+  </si>
+  <si>
+    <t>NDLAVELA</t>
+  </si>
+  <si>
+    <t>CHAMANCULO D</t>
+  </si>
+  <si>
+    <t>VALE DO INFULENE</t>
+  </si>
+  <si>
+    <t>POLANA CIMENTO B</t>
+  </si>
+  <si>
+    <t>MATOLA F</t>
+  </si>
+  <si>
+    <t>KM-15</t>
+  </si>
+  <si>
+    <t>CENTRAL A</t>
+  </si>
+  <si>
+    <t>MUHALAZE</t>
+  </si>
+  <si>
+    <t>TECNICO MEDIO/12ª CLASSE</t>
+  </si>
+  <si>
+    <t>LICENCIADO</t>
+  </si>
+  <si>
+    <t>CADEIRAS CONCLUIDAS EXCEPTO MONOGRAFIA</t>
+  </si>
+  <si>
+    <t>ALIMA AMUZA CHIVIHA</t>
+  </si>
+  <si>
+    <t>BENILDA BASILIO BENZANE</t>
+  </si>
+  <si>
+    <t>BENILDO EUGENIA NHAMIR</t>
+  </si>
+  <si>
+    <t>DECISARDO DA MARCELA NZUALO</t>
+  </si>
+  <si>
+    <t>ENIA MARIA CRISALDO MONDLHANE</t>
+  </si>
+  <si>
+    <t>FERNANDO ROSITA CHILUVANE</t>
+  </si>
+  <si>
+    <t>HELIO LOMBENE</t>
+  </si>
+  <si>
+    <t>MANUE DONCA</t>
+  </si>
+  <si>
+    <t>MARIA INES ANTONIO SILIMA</t>
+  </si>
+  <si>
+    <t>MARIAMO VICTORINO MEQUE MANHOSO</t>
+  </si>
+  <si>
+    <t>MARILIA DA GRACA JUVENALDA MANHIQUE</t>
+  </si>
+  <si>
+    <t>PERCINA BENEDITO GUILUNDO</t>
+  </si>
+  <si>
+    <t>SUZANA ADOLFO MUIUANE</t>
+  </si>
+  <si>
+    <t>YULA DA BELISARIA ROBERTO NHANTUMBO CUMAIO</t>
+  </si>
+  <si>
+    <t>UAMATIBWANA</t>
+  </si>
+  <si>
+    <t>LUIS CABRAL</t>
+  </si>
+  <si>
+    <t>MACHAVA A</t>
+  </si>
+  <si>
+    <t>COBE</t>
+  </si>
+  <si>
+    <t>HULENE B</t>
+  </si>
+  <si>
+    <t>PATRICE LUMUMBA</t>
+  </si>
+  <si>
+    <t>MAXAQUENE B</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>FOMENTO</t>
+  </si>
+  <si>
+    <t>MATOLA H</t>
+  </si>
+  <si>
+    <t>ELEVA</t>
+  </si>
+  <si>
+    <t>ERJONIA LUDINA UAMUSSE</t>
+  </si>
+  <si>
+    <t>CECILIA MAHUMANE</t>
+  </si>
+  <si>
+    <t>INELDA SPIWA ARNALDO TEMBE</t>
+  </si>
+  <si>
+    <t>ANA ALCINDA CHALALA CHAUQUE</t>
+  </si>
+  <si>
+    <t>WAKOLEVA FELICIDADE MAIA</t>
+  </si>
+  <si>
+    <t>TEODORA BONE MADEIRA OFICIAL</t>
+  </si>
+  <si>
+    <t>CARMEN ROSA HENRIQUE MALHALELE</t>
+  </si>
+  <si>
+    <t>HELENA NELSON HUBO</t>
+  </si>
+  <si>
+    <t>PAULA EUGENIO SARANGA</t>
+  </si>
+  <si>
+    <t>ANA JULIO CUMBE</t>
+  </si>
+  <si>
+    <t>AMELIA ANSELMO MACOMOLE</t>
+  </si>
+  <si>
+    <t>AMELIA REGINALDO FUMO</t>
+  </si>
+  <si>
+    <t>CINTYA PRECIOSA RAIMUNDO</t>
+  </si>
+  <si>
+    <t>EGNECE DA FLORA TAMELE</t>
+  </si>
+  <si>
+    <t>EULALIA DO CARME CARMINDAS ELIAS</t>
+  </si>
+  <si>
+    <t>LISETE JOSE NHONE</t>
+  </si>
+  <si>
+    <t>MARIA EMILIA DE SOUSA</t>
+  </si>
+  <si>
+    <t>MARIA SALMINA NHAMIRA NHATELO</t>
+  </si>
+  <si>
+    <t>MARTA VANIA UETELA</t>
+  </si>
+  <si>
+    <t>NEUSIA CARLOS MUNGUAMBE</t>
+  </si>
+  <si>
+    <t>OTILIA JIVE</t>
+  </si>
+  <si>
+    <t>QUITERIA JOSSIAS CUMBE</t>
+  </si>
+  <si>
+    <t>SABINA ALBINO MULHUI</t>
+  </si>
+  <si>
+    <t>SHIRLEY DA GLORIA TROVEJA</t>
+  </si>
+  <si>
+    <t>VANIA ARLINDO SIMBINE</t>
+  </si>
+  <si>
+    <t>VERONICA JAIME ZANGO</t>
+  </si>
+  <si>
+    <t>TEVINARDO ESTEVAO MAIUANE FANHEIRO</t>
+  </si>
+  <si>
+    <t>EDGAR ZEFANIAS DOMINGOS TEMBE</t>
+  </si>
+  <si>
+    <t>ABEL TITOS MAIBASSE</t>
+  </si>
+  <si>
+    <t>CARLOS IVAN MUTABAQUEIRO</t>
+  </si>
+  <si>
+    <t>DIQUE SALOMAO ZANDAMELA</t>
+  </si>
+  <si>
+    <t>CELIO WILLIAM CARLOS MACHILI</t>
+  </si>
+  <si>
+    <t>EDY FULANE</t>
+  </si>
+  <si>
+    <t>VARITO LAZARO PEDRO</t>
+  </si>
+  <si>
+    <t>HARIFO BACAR ADAMO</t>
+  </si>
+  <si>
+    <t>JOAO MOISES BIE</t>
+  </si>
+  <si>
+    <t>IGOR NAZIR MUSSA JOCORDASSE</t>
+  </si>
+  <si>
+    <t>EDSON RIBEIRO SABAO</t>
+  </si>
+  <si>
+    <t>ANTONIO PAULO MANAVE</t>
+  </si>
+  <si>
+    <t>EDMILSON MATUSSE</t>
+  </si>
+  <si>
+    <t>ERNESTO ARNALDO DIMANDE</t>
+  </si>
+  <si>
+    <t>ERNESTO RAIMUNDO MACUACUA</t>
+  </si>
+  <si>
+    <t>HILARIO VALENTE CHITSOTSO</t>
+  </si>
+  <si>
+    <t>JORGE JOSE BAMBO</t>
+  </si>
+  <si>
+    <t>PAUL DANIEL MUHOLOVE</t>
+  </si>
+  <si>
+    <t>ABSALAO ALBERTO CHIBOLECA</t>
+  </si>
+  <si>
+    <t>AFIZARDO CUSTODIO MACHELENE</t>
+  </si>
+  <si>
+    <t>ALBERTO CARLOS MANDLATE</t>
+  </si>
+  <si>
+    <t>ALBERTO ERNESTO MUGUAMBE</t>
+  </si>
+  <si>
+    <t>ALFIADO ALBERTO MATSINHE</t>
+  </si>
+  <si>
+    <t>ANTONIO AGOSTINHO MANJATE</t>
+  </si>
+  <si>
+    <t>ANTONIO MARCOS MACAMO</t>
+  </si>
+  <si>
+    <t>ANTONIO RAIMUNDO MAZUZE</t>
+  </si>
+  <si>
+    <t>APOLINARIO VASCO SITOE</t>
+  </si>
+  <si>
+    <t>ARISTIDES MARIA RAUL CUMBANE</t>
+  </si>
+  <si>
+    <t>ARMINDO ALBERTO GUAMBE</t>
+  </si>
+  <si>
+    <t>AURELIO ALFREDO MUTIMUCUIO</t>
+  </si>
+  <si>
+    <t>CARLOS EUSEBIO CHAU</t>
+  </si>
+  <si>
+    <t>CARLOS JUSCELINO PAUNDE</t>
+  </si>
+  <si>
+    <t>DENILSON GABRIEL FIGUEIREDO CORREIA</t>
+  </si>
+  <si>
+    <t>EDSON ARNALDO GUMBE</t>
+  </si>
+  <si>
+    <t>EFRAIME TELES GUILUNDO</t>
+  </si>
+  <si>
+    <t>ELTON CARLOS DZUALO</t>
+  </si>
+  <si>
+    <t>ETINERIO ALBINO CUAMBE</t>
+  </si>
+  <si>
+    <t>FELIX ERNESTO MACULANE</t>
+  </si>
+  <si>
+    <t>FRANCISCO DA CONCEICAO</t>
+  </si>
+  <si>
+    <t>FRANCISCO ERNESTO SITOE</t>
+  </si>
+  <si>
+    <t>FRANCISCO MUIANGA</t>
+  </si>
+  <si>
+    <t>GABRIEL COSSINE SITOE</t>
+  </si>
+  <si>
+    <t>HELDER DOMINGOS CAPETINE CAMO-CAMO</t>
+  </si>
+  <si>
+    <t>JERONIMO ANTONIO MASSINGUE</t>
+  </si>
+  <si>
+    <t>JOAO BERNARDO BUCUANE</t>
+  </si>
+  <si>
+    <t>JOAO JULIAO MINDU JUNIOR</t>
+  </si>
+  <si>
+    <t>JORGE SAMUEL MUCUBA</t>
+  </si>
+  <si>
+    <t>JOSE ABILIO MAVULULE</t>
+  </si>
+  <si>
+    <t>JOSE JOAO SALIMO</t>
+  </si>
+  <si>
+    <t>LODOVINO LOURENCO LANGA</t>
+  </si>
+  <si>
+    <t>MATAI FRANCISCO</t>
+  </si>
+  <si>
+    <t>OBLI BERNARDO CHIULELE</t>
+  </si>
+  <si>
+    <t>ORLANDO MACHAVA</t>
+  </si>
+  <si>
+    <t>PEDRO ANTONIO DZIMBA</t>
+  </si>
+  <si>
+    <t>PEDRO ERNESTO NHAMPOSSE</t>
+  </si>
+  <si>
+    <t>ROBERTO SALOMAO JOAO</t>
+  </si>
+  <si>
+    <t>SAMUEL DOMINGOS ALBERTO CHECUA</t>
+  </si>
+  <si>
+    <t>SIDONIO JOZINE</t>
+  </si>
+  <si>
+    <t>VICENTE ELIAS TEMBE MUDUMBE</t>
+  </si>
+  <si>
+    <t>MELVIN LUCIA SIMBINE</t>
+  </si>
+  <si>
+    <t>AMINA GERALDO JEQUECENE</t>
+  </si>
+  <si>
+    <t>GIPSY PAULO MANJATE</t>
+  </si>
+  <si>
+    <t>IJATE OSSUMANE SILVA SALATE</t>
+  </si>
+  <si>
+    <t>LOICE BILA</t>
+  </si>
+  <si>
+    <t>SIFICO SALVADOR ZUCULA</t>
+  </si>
+  <si>
+    <t>CLAUDIO HERMINIO PELEMBE</t>
+  </si>
+  <si>
+    <t>IMIDIO MATATA LANGA</t>
+  </si>
+  <si>
+    <t>FILOMENA JOAQUIM TSAMBA</t>
+  </si>
+  <si>
+    <t>SOFIA MARLENE HUMOR MIGANO BUQUE</t>
+  </si>
+  <si>
+    <t>MARRACUENE</t>
+  </si>
+  <si>
+    <t>BUNHICA</t>
+  </si>
+  <si>
+    <t>25 DE JUNHO B</t>
+  </si>
+  <si>
+    <t>KHONGOLOTE</t>
+  </si>
+  <si>
+    <t>ZONA VERDE</t>
+  </si>
+  <si>
+    <t>MACHAVA SEDE</t>
+  </si>
+  <si>
+    <t>MAHLAMPSWENE</t>
+  </si>
+  <si>
+    <t>MAXAQUENE A</t>
+  </si>
+  <si>
+    <t>INFULENE</t>
+  </si>
+  <si>
+    <t>MUSSUMBULUCO</t>
+  </si>
+  <si>
+    <t>TREVO</t>
+  </si>
+  <si>
+    <t>SIKWAMA</t>
+  </si>
+  <si>
+    <t>MATOLA J</t>
+  </si>
+  <si>
+    <t>MATOLA C</t>
+  </si>
+  <si>
+    <t>LAULANE</t>
+  </si>
+  <si>
+    <t>MATOLA G</t>
+  </si>
+  <si>
+    <t>CHAMANCULO C</t>
+  </si>
+  <si>
+    <t>MATOLA D</t>
+  </si>
+  <si>
+    <t>MACHAVA CENTRAL</t>
+  </si>
+  <si>
+    <t>AEROPORTO</t>
+  </si>
+  <si>
+    <t>TECNICO BASICO/10ª CLASSE</t>
+  </si>
+  <si>
+    <t>MENOS QUE 10ª CLASSE</t>
+  </si>
+  <si>
+    <t>11ª CLASSE (OU EQUIVALENTE)</t>
+  </si>
+  <si>
+    <t>COHORT 3</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>TVET</t>
+  </si>
+  <si>
+    <t>848264538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84 2534600
+</t>
+  </si>
+  <si>
+    <t>87 885 2556</t>
+  </si>
+  <si>
+    <t>847462328</t>
+  </si>
+  <si>
+    <t>84 92 38 188</t>
+  </si>
+  <si>
+    <t>82497 2617</t>
+  </si>
+  <si>
+    <t>84 26 74 084</t>
+  </si>
+  <si>
+    <t>847029720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84 036 44 92
+</t>
+  </si>
+  <si>
+    <t>84 82 04 757</t>
+  </si>
+  <si>
+    <t>84 55 10 890</t>
+  </si>
+  <si>
+    <t>84 41 35 958</t>
+  </si>
+  <si>
+    <t>84 81 41 431
+87 859 5322</t>
+  </si>
+  <si>
+    <t>869130802</t>
+  </si>
+  <si>
+    <t>842581258
+874031789</t>
+  </si>
+  <si>
+    <t>848023480</t>
+  </si>
+  <si>
+    <t>84 33 31 119</t>
+  </si>
+  <si>
+    <t>826486830</t>
+  </si>
+  <si>
+    <t>84 444 22 74
+ 86 63 85 837</t>
+  </si>
+  <si>
+    <t>84 77 30 217</t>
+  </si>
+  <si>
+    <t>84 69 32 219 
+86 57 44 746</t>
+  </si>
+  <si>
+    <t>846409012</t>
+  </si>
+  <si>
+    <t>848931564</t>
+  </si>
+  <si>
+    <t>844408498</t>
+  </si>
+  <si>
+    <t>846430388</t>
+  </si>
+  <si>
+    <t>842960594 
+827658237-</t>
+  </si>
+  <si>
+    <t>829757977
+850455801</t>
+  </si>
+  <si>
+    <t>842493580
+872493580</t>
+  </si>
+  <si>
+    <t>849 669 689</t>
+  </si>
+  <si>
+    <t>877029261/ 82702926</t>
+  </si>
+  <si>
+    <t>848256527</t>
+  </si>
+  <si>
+    <t>estado</t>
+  </si>
+  <si>
+    <t>SELECIONADO PARA O ESTAGIO</t>
+  </si>
+  <si>
+    <t>3 semanas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,14 +936,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{901D2EDB-D6E6-47B0-AF06-14A1167FBACC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -384,10 +1238,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G91" sqref="G91:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,19 +1279,6314 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" s="9">
+        <v>258844349780</v>
+      </c>
+      <c r="J2" s="9">
+        <v>258842595899</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I3" s="9">
+        <v>258849290813</v>
+      </c>
+      <c r="J3" s="9">
+        <v>258847656644</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G4" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="9">
+        <v>258845892609</v>
+      </c>
+      <c r="J4" s="9">
+        <v>258847005050</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G5" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="9">
+        <v>258845158442</v>
+      </c>
+      <c r="J5" s="9">
+        <v>258846712977</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G6" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" s="9">
+        <v>258845450085</v>
+      </c>
+      <c r="J6" s="9">
+        <v>258843732127</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I7" s="9">
+        <v>258849545872</v>
+      </c>
+      <c r="J7" s="9">
+        <v>258866519375</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="9">
+        <v>258846235349</v>
+      </c>
+      <c r="J8" s="9">
+        <v>258827843994</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I9" s="9">
+        <v>258840220561</v>
+      </c>
+      <c r="J9" s="9">
+        <v>258843030311</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I10" s="9">
+        <v>258842094824</v>
+      </c>
+      <c r="J10" s="9">
+        <v>258848113962</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I11" s="9">
+        <v>258847505603</v>
+      </c>
+      <c r="J11" s="9">
+        <v>258847259655</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I12" s="9">
+        <v>258847124586</v>
+      </c>
+      <c r="J12" s="9">
+        <v>258847562246</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G13" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I13" s="9">
+        <v>258846171367</v>
+      </c>
+      <c r="J13" s="9">
+        <v>258841184919</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G14" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I14" s="9">
+        <v>258844844170</v>
+      </c>
+      <c r="J14" s="9">
+        <v>258842465911</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I15" s="9">
+        <v>258847710637</v>
+      </c>
+      <c r="J15" s="9">
+        <v>258847710044</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I16" s="9">
+        <v>258840390358</v>
+      </c>
+      <c r="J16" s="9">
+        <v>258870939668</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G17" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I17" s="9">
+        <v>258827555099</v>
+      </c>
+      <c r="J17" s="9">
+        <v>258844502100</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I18" s="9">
+        <v>258841532455</v>
+      </c>
+      <c r="J18" s="9">
+        <v>258820199280</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I19" s="9">
+        <v>258844825840</v>
+      </c>
+      <c r="J19" s="9">
+        <v>258828758767</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G20" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I20" s="9">
+        <v>258844921600</v>
+      </c>
+      <c r="J20" s="9">
+        <v>258848236066</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I21" s="9">
+        <v>258842994066</v>
+      </c>
+      <c r="J21" s="9">
+        <v>258846027560</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G22" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I22" s="9">
+        <v>258844358376</v>
+      </c>
+      <c r="J22" s="9">
+        <v>258845987353</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I23" s="9">
+        <v>258841061605</v>
+      </c>
+      <c r="J23" s="9">
+        <v>258865613886</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G24" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I24" s="9">
+        <v>258848987449</v>
+      </c>
+      <c r="J24" s="9">
+        <v>258868987449</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G25" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I25" s="9">
+        <v>258842193531</v>
+      </c>
+      <c r="J25" s="9">
+        <v>258869529764</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M25" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I26" s="9">
+        <v>258844531699</v>
+      </c>
+      <c r="J26" s="9">
+        <v>258842481273</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I27" s="9">
+        <v>258824055044</v>
+      </c>
+      <c r="J27" s="9">
+        <v>258844604912</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I28" s="9">
+        <v>258849533526</v>
+      </c>
+      <c r="J28" s="9">
+        <v>258842584166</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I29" s="9">
+        <v>258865790786</v>
+      </c>
+      <c r="J29" s="9">
+        <v>258845790786</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I30" s="9">
+        <v>258840183766</v>
+      </c>
+      <c r="J30" s="9">
+        <v>258820314840</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I31" s="9">
+        <v>258845971445</v>
+      </c>
+      <c r="J31" s="9">
+        <v>258852046539</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I32" s="9">
+        <v>258846810415</v>
+      </c>
+      <c r="J32" s="9">
+        <v>258822576689</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I33" s="9">
+        <v>258840475021</v>
+      </c>
+      <c r="J33" s="9">
+        <v>258878811893</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G34" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I34" s="9">
+        <v>258843683475</v>
+      </c>
+      <c r="J34" s="9">
+        <v>258873088614</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G35" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I35" s="9">
+        <v>258842566897</v>
+      </c>
+      <c r="J35" s="9"/>
+      <c r="K35" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I36" s="9">
+        <v>258845862931</v>
+      </c>
+      <c r="J36" s="9">
+        <v>258825862931</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I37" s="9">
+        <v>258843985558</v>
+      </c>
+      <c r="J37" s="9">
+        <v>258872985558</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M37" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I38" s="9">
+        <v>258849420773</v>
+      </c>
+      <c r="J38" s="9">
+        <v>258844179563</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I39" s="9">
+        <v>258847642999</v>
+      </c>
+      <c r="J39" s="9">
+        <v>258824071050</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I40" s="9">
+        <v>258824917400</v>
+      </c>
+      <c r="J40" s="9">
+        <v>258824999711</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G41" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I41" s="9">
+        <v>258844252620</v>
+      </c>
+      <c r="J41" s="9">
+        <v>258844170086</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I42" s="9">
+        <v>258826080127</v>
+      </c>
+      <c r="J42" s="9">
+        <v>258849166115</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I43" s="9">
+        <v>258826735975</v>
+      </c>
+      <c r="J43" s="9">
+        <v>258870735975</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G44" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I44" s="9">
+        <v>258845478974</v>
+      </c>
+      <c r="J44" s="9">
+        <v>258845611183</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I45" s="9">
+        <v>258840130009</v>
+      </c>
+      <c r="J45" s="9">
+        <v>258870130009</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G46" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I46" s="9">
+        <v>258842674679</v>
+      </c>
+      <c r="J46" s="9">
+        <v>258843718605</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G47" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I47" s="9">
+        <v>258843813700</v>
+      </c>
+      <c r="J47" s="9">
+        <v>258843220625</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G48" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I48" s="9">
+        <v>258845209425</v>
+      </c>
+      <c r="J48" s="9">
+        <v>258842062344</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I49" s="9">
+        <v>258840680216</v>
+      </c>
+      <c r="J49" s="9">
+        <v>258826805276</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M49" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G50" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I50" s="9">
+        <v>258845250027</v>
+      </c>
+      <c r="J50" s="9">
+        <v>258825250028</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G51" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I51" s="9">
+        <v>258846192376</v>
+      </c>
+      <c r="J51" s="9">
+        <v>258845267001</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I52" s="9">
+        <v>258845844029</v>
+      </c>
+      <c r="J52" s="9">
+        <v>258841441411</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G53" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I53" s="9">
+        <v>258846404606</v>
+      </c>
+      <c r="J53" s="9">
+        <v>258849030082</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G54" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I54" s="9">
+        <v>258848810229</v>
+      </c>
+      <c r="J54" s="9">
+        <v>258820266054</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I55" s="9">
+        <v>258844933756</v>
+      </c>
+      <c r="J55" s="9">
+        <v>258869646844</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G56" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I56" s="9">
+        <v>258846594318</v>
+      </c>
+      <c r="J56" s="9">
+        <v>258872531042</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I57" s="9">
+        <v>258823590989</v>
+      </c>
+      <c r="J57" s="9">
+        <v>258827152222</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I58" s="9">
+        <v>258843488892</v>
+      </c>
+      <c r="J58" s="9">
+        <v>258843850529</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G59" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I59" s="9">
+        <v>258846797913</v>
+      </c>
+      <c r="J59" s="9">
+        <v>258820556146</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G60" s="13">
+        <v>43831</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I60" s="9">
+        <v>258844314849</v>
+      </c>
+      <c r="J60" s="9">
+        <v>258840795555</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G61" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="J61" s="9"/>
+      <c r="K61" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="39" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G62" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="J62" s="12">
+        <v>827920030</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G63" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J63" s="9"/>
+      <c r="K63" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M63" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G64" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="J64" s="9"/>
+      <c r="K64" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M64" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G65" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J65" s="9"/>
+      <c r="K65" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M65" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G66" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J66" s="9"/>
+      <c r="K66" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M66" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G67" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="J67" s="9"/>
+      <c r="K67" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N67" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G68" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="J68" s="9"/>
+      <c r="K68" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M68" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="39" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G69" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G70" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I70" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G71" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="J71" s="9"/>
+      <c r="K71" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G72" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="J72" s="9"/>
+      <c r="K72" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G73" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="J73" s="9"/>
+      <c r="K73" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G74" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="J74" s="9"/>
+      <c r="K74" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G75" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="J75" s="9"/>
+      <c r="K75" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G76" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="J76" s="9"/>
+      <c r="K76" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M76" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G77" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J77" s="9"/>
+      <c r="K77" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M77" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G78" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="J78" s="9"/>
+      <c r="K78" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M78" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G79" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="J79" s="9"/>
+      <c r="K79" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M79" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G80" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="J80" s="9"/>
+      <c r="K80" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M80" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G81" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="J81" s="9"/>
+      <c r="K81" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M81" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G82" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J82" s="9"/>
+      <c r="K82" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M82" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G83" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="J83" s="9"/>
+      <c r="K83" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G84" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="J84" s="9"/>
+      <c r="K84" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M84" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G85" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="J85" s="9"/>
+      <c r="K85" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M85" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G86" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I86" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="J86" s="9"/>
+      <c r="K86" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N86" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G87" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="J87" s="9"/>
+      <c r="K87" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M87" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N87" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G88" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J88" s="9"/>
+      <c r="K88" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M88" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G89" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="J89" s="9"/>
+      <c r="K89" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G90" s="13">
+        <v>43647</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I90" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="J90" s="9"/>
+      <c r="K90" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M90" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G91" s="13">
+        <v>43891</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I91" s="9">
+        <v>844454551</v>
+      </c>
+      <c r="J91" s="9">
+        <v>840528548</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M91" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G92" s="13">
+        <v>43891</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I92" s="9">
+        <v>258848226049</v>
+      </c>
+      <c r="J92" s="9">
+        <v>258843137827</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G93" s="13">
+        <v>43891</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I93" s="9">
+        <v>847582594</v>
+      </c>
+      <c r="J93" s="9">
+        <v>841133969</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G94" s="13">
+        <v>43891</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I94" s="9">
+        <v>842184097</v>
+      </c>
+      <c r="J94" s="9">
+        <v>841457869</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M94" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G95" s="13">
+        <v>43891</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M95" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G96" s="13">
+        <v>43891</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I96" s="9">
+        <v>258840707600</v>
+      </c>
+      <c r="J96" s="9">
+        <v>258820707800</v>
+      </c>
+      <c r="K96" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="M96" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G97" s="13">
+        <v>43891</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I97" s="9">
+        <v>844407092</v>
+      </c>
+      <c r="J97" s="9">
+        <v>844111078</v>
+      </c>
+      <c r="K97" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N97" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G98" s="13">
+        <v>43891</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I98" s="9">
+        <v>258846780193</v>
+      </c>
+      <c r="J98" s="9">
+        <v>258820458252</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M98" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="N98" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G99" s="13">
+        <v>43891</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M99" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G100" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I100" s="9">
+        <v>842036403</v>
+      </c>
+      <c r="J100" s="9">
+        <v>845407775</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N100" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G101" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I101" s="9">
+        <v>846572398</v>
+      </c>
+      <c r="J101" s="9">
+        <v>840402220</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G102" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I102" s="9">
+        <v>845112261</v>
+      </c>
+      <c r="J102" s="9">
+        <v>840596757</v>
+      </c>
+      <c r="K102" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N102" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G103" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I103" s="9">
+        <v>843796275</v>
+      </c>
+      <c r="J103" s="9">
+        <v>847898816</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M103" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N103" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G104" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I104" s="9">
+        <v>847288124</v>
+      </c>
+      <c r="J104" s="9">
+        <v>846200890</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M104" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G105" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I105" s="9">
+        <v>849410822</v>
+      </c>
+      <c r="J105" s="9">
+        <v>841454955</v>
+      </c>
+      <c r="K105" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L105" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M105" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N105" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G106" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I106" s="9">
+        <v>844847249</v>
+      </c>
+      <c r="J106" s="9">
+        <v>845123477</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L106" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N106" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G107" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I107" s="9">
+        <v>849535924</v>
+      </c>
+      <c r="J107" s="9">
+        <v>844404833</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L107" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G108" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I108" s="9">
+        <v>820621584</v>
+      </c>
+      <c r="J108" s="9">
+        <v>842697978</v>
+      </c>
+      <c r="K108" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L108" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G109" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I109" s="9">
+        <v>845247604</v>
+      </c>
+      <c r="J109" s="9">
+        <v>849586216</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L109" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M109" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G110" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I110" s="9">
+        <v>849477988</v>
+      </c>
+      <c r="J110" s="9">
+        <v>824166356</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L110" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G111" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I111" s="9">
+        <v>258840240610</v>
+      </c>
+      <c r="J111" s="9">
+        <v>258870240610</v>
+      </c>
+      <c r="K111" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G112" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I112" s="9">
+        <v>847608630</v>
+      </c>
+      <c r="J112" s="9">
+        <v>866608630</v>
+      </c>
+      <c r="K112" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L112" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M112" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G113" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I113" s="9">
+        <v>847120679</v>
+      </c>
+      <c r="J113" s="9">
+        <v>821805551</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L113" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I114" s="9">
+        <v>845439060</v>
+      </c>
+      <c r="J114" s="9">
+        <v>849115806</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L114" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M114" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G115" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I115" s="9">
+        <v>846771256</v>
+      </c>
+      <c r="J115" s="9">
+        <v>846229116</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L115" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M115" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G116" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I116" s="9">
+        <v>862347423</v>
+      </c>
+      <c r="J116" s="9">
+        <v>844575524</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L116" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M116" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G117" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I117" s="9">
+        <v>845686951</v>
+      </c>
+      <c r="J117" s="9">
+        <v>849123141</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L117" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G118" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I118" s="9">
+        <v>849643586</v>
+      </c>
+      <c r="J118" s="9">
+        <v>841342177</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L118" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G119" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I119" s="9">
+        <v>258841415026</v>
+      </c>
+      <c r="J119" s="9">
+        <v>258846796636</v>
+      </c>
+      <c r="K119" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G120" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I120" s="9">
+        <v>848371997</v>
+      </c>
+      <c r="J120" s="9">
+        <v>847016557</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L120" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G121" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I121" s="9">
+        <v>844568072</v>
+      </c>
+      <c r="J121" s="9">
+        <v>847358350</v>
+      </c>
+      <c r="K121" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L121" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="N121" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G122" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I122" s="9">
+        <v>845148637</v>
+      </c>
+      <c r="J122" s="9">
+        <v>847116289</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L122" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M122" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G123" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I123" s="9">
+        <v>844600939</v>
+      </c>
+      <c r="J123" s="9">
+        <v>845074132</v>
+      </c>
+      <c r="K123" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L123" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M123" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G124" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I124" s="9">
+        <v>844194475</v>
+      </c>
+      <c r="J124" s="9">
+        <v>847051197</v>
+      </c>
+      <c r="K124" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L124" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M124" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N124" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G125" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I125" s="9">
+        <v>258844698538</v>
+      </c>
+      <c r="J125" s="9">
+        <v>258847162803</v>
+      </c>
+      <c r="K125" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L125" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G126" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I126" s="9">
+        <v>845773209</v>
+      </c>
+      <c r="J126" s="9">
+        <v>845813759</v>
+      </c>
+      <c r="K126" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L126" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M126" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G127" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I127" s="9">
+        <v>258847841381</v>
+      </c>
+      <c r="J127" s="9">
+        <v>258841255740</v>
+      </c>
+      <c r="K127" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L127" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M127" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G128" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I128" s="9">
+        <v>258844061856</v>
+      </c>
+      <c r="J128" s="9">
+        <v>258845030774</v>
+      </c>
+      <c r="K128" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L128" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M128" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G129" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I129" s="9">
+        <v>848230234</v>
+      </c>
+      <c r="J129" s="9">
+        <v>848911928</v>
+      </c>
+      <c r="K129" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L129" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M129" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G130" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I130" s="9">
+        <v>842242234</v>
+      </c>
+      <c r="J130" s="9">
+        <v>849665521</v>
+      </c>
+      <c r="K130" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L130" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M130" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G131" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I131" s="9">
+        <v>845571889</v>
+      </c>
+      <c r="J131" s="9">
+        <v>840460663</v>
+      </c>
+      <c r="K131" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L131" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M131" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G132" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I132" s="9">
+        <v>844696235</v>
+      </c>
+      <c r="J132" s="9">
+        <v>848232738</v>
+      </c>
+      <c r="K132" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L132" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M132" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G133" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I133" s="9">
+        <v>258845998393</v>
+      </c>
+      <c r="J133" s="9">
+        <v>258845998393</v>
+      </c>
+      <c r="K133" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M133" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G134" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I134" s="9">
+        <v>842412533</v>
+      </c>
+      <c r="J134" s="9">
+        <v>822538752</v>
+      </c>
+      <c r="K134" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L134" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M134" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G135" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I135" s="9">
+        <v>846048022</v>
+      </c>
+      <c r="J135" s="9">
+        <v>848537028</v>
+      </c>
+      <c r="K135" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L135" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M135" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N135" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G136" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I136" s="9">
+        <v>844167715</v>
+      </c>
+      <c r="J136" s="9">
+        <v>844924306</v>
+      </c>
+      <c r="K136" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L136" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M136" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G137" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I137" s="9">
+        <v>847844218</v>
+      </c>
+      <c r="J137" s="9">
+        <v>842946371</v>
+      </c>
+      <c r="K137" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L137" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M137" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N137" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G138" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I138" s="9">
+        <v>258848620494</v>
+      </c>
+      <c r="J138" s="9">
+        <v>258849094033</v>
+      </c>
+      <c r="K138" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L138" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M138" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N138" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G139" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I139" s="9">
+        <v>840154565</v>
+      </c>
+      <c r="J139" s="9">
+        <v>844442866</v>
+      </c>
+      <c r="K139" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L139" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="N139" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G140" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I140" s="9">
+        <v>258843910404</v>
+      </c>
+      <c r="J140" s="9">
+        <v>258840222828</v>
+      </c>
+      <c r="K140" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L140" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M140" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="N140" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G141" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I141" s="9">
+        <v>258847788470</v>
+      </c>
+      <c r="J141" s="9">
+        <v>258827748485</v>
+      </c>
+      <c r="K141" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L141" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M141" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="N141" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G142" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I142" s="9">
+        <v>840518174</v>
+      </c>
+      <c r="J142" s="9">
+        <v>840544128</v>
+      </c>
+      <c r="K142" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L142" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M142" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N142" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G143" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I143" s="9">
+        <v>844164775</v>
+      </c>
+      <c r="J143" s="9">
+        <v>848733198</v>
+      </c>
+      <c r="K143" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L143" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M143" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G144" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I144" s="9">
+        <v>258845598520</v>
+      </c>
+      <c r="J144" s="9">
+        <v>258846288472</v>
+      </c>
+      <c r="K144" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L144" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G145" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I145" s="9">
+        <v>258842474529</v>
+      </c>
+      <c r="J145" s="9">
+        <v>258825368021</v>
+      </c>
+      <c r="K145" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L145" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M145" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N145" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G146" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I146" s="9">
+        <v>847911535</v>
+      </c>
+      <c r="J146" s="9">
+        <v>828110530</v>
+      </c>
+      <c r="K146" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L146" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M146" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N146" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G147" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I147" s="9">
+        <v>849156135</v>
+      </c>
+      <c r="J147" s="9">
+        <v>828826220</v>
+      </c>
+      <c r="K147" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L147" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M147" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N147" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G148" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I148" s="9">
+        <v>840126451</v>
+      </c>
+      <c r="J148" s="9">
+        <v>842757245</v>
+      </c>
+      <c r="K148" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L148" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M148" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N148" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G149" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I149" s="9">
+        <v>842450877</v>
+      </c>
+      <c r="J149" s="9">
+        <v>823447188</v>
+      </c>
+      <c r="K149" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L149" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M149" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N149" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G150" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I150" s="9">
+        <v>846558754</v>
+      </c>
+      <c r="J150" s="9">
+        <v>842458924</v>
+      </c>
+      <c r="K150" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L150" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M150" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N150" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G151" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I151" s="9">
+        <v>846407764</v>
+      </c>
+      <c r="J151" s="9">
+        <v>822712036</v>
+      </c>
+      <c r="K151" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L151" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M151" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N151" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D152" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G152" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I152" s="9">
+        <v>847273388</v>
+      </c>
+      <c r="J152" s="9">
+        <v>843866670</v>
+      </c>
+      <c r="K152" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L152" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M152" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N152" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G153" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I153" s="9">
+        <v>258845064020</v>
+      </c>
+      <c r="J153" s="9">
+        <v>258847201090</v>
+      </c>
+      <c r="K153" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L153" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N153" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G154" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I154" s="9">
+        <v>846870377</v>
+      </c>
+      <c r="J154" s="9">
+        <v>846500511</v>
+      </c>
+      <c r="K154" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L154" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M154" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N154" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G155" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I155" s="9">
+        <v>258846883429</v>
+      </c>
+      <c r="J155" s="9">
+        <v>258822785537</v>
+      </c>
+      <c r="K155" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L155" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M155" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N155" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G156" s="13">
+        <v>43709</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I156" s="9">
+        <v>842644484</v>
+      </c>
+      <c r="J156" s="9">
+        <v>852129711</v>
+      </c>
+      <c r="K156" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="L156" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M156" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="N156" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N188">
+      <sortCondition ref="K1"/>
+    </sortState>
+  </autoFilter>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>